--- a/res/rasgosdistintivos.xlsx
+++ b/res/rasgosdistintivos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="58">
   <si>
     <t xml:space="preserve">i</t>
   </si>
@@ -54,6 +54,30 @@
     <t xml:space="preserve">ɔ</t>
   </si>
   <si>
+    <t xml:space="preserve">CLOSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTERIOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">±</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUNDED</t>
+  </si>
+  <si>
     <t xml:space="preserve">p</t>
   </si>
   <si>
@@ -139,30 +163,6 @@
   </si>
   <si>
     <t xml:space="preserve">ɺ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTERIOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">±</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUNDED</t>
   </si>
   <si>
     <t xml:space="preserve">SONORANT</t>
@@ -286,31 +286,28 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AN6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -344,273 +341,215 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -619,22 +558,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AQ17" activeCellId="0" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="1" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="40" min="12" style="0" width="3.23979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="10.530612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="3.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="12" style="0" width="3.24"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,701 +607,701 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,121 +1309,121 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,121 +1431,121 @@
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,121 +1553,121 @@
         <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,121 +1675,121 @@
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,121 +1797,121 @@
         <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,121 +1919,121 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,121 +2041,121 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,121 +2163,121 @@
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,121 +2285,121 @@
         <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,121 +2407,121 @@
         <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,127 +2529,127 @@
         <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2720,110 +2658,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="59" min="2" style="1" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="60" style="0" width="10.530612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="2" style="1" width="4.99"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,91 +2767,91 @@
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,91 +2859,91 @@
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,91 +2951,91 @@
         <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,91 +3043,91 @@
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,91 +3135,91 @@
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,91 +3227,91 @@
         <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,91 +3319,91 @@
         <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,91 +3411,91 @@
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,97 +3503,97 @@
         <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
